--- a/xlsx/美國職棒大聯盟_intext.xlsx
+++ b/xlsx/美國職棒大聯盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>棒球</t>
   </si>
   <si>
-    <t>政策_政策_加州_美國職棒大聯盟</t>
+    <t>体育运动_体育运动_奥林匹克运动会_美國職棒大聯盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -2585,7 +2585,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -2614,7 +2614,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -2962,7 +2962,7 @@
         <v>60</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3165,7 +3165,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3252,7 +3252,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -5427,7 +5427,7 @@
         <v>36</v>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5485,7 +5485,7 @@
         <v>200</v>
       </c>
       <c r="G118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5543,7 +5543,7 @@
         <v>38</v>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5601,7 +5601,7 @@
         <v>206</v>
       </c>
       <c r="G122" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
